--- a/biology/Médecine/Brosse_de_toilettes/Brosse_de_toilettes.xlsx
+++ b/biology/Médecine/Brosse_de_toilettes/Brosse_de_toilettes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une brosse de toilettes ou balai de toilettes est un type de brosse utilisée dans les toilettes pour nettoyer l'émail des parois intérieures de la cuvette, notamment pour ôter les traces et résidus de matières fécales ou pour l'entretien régulier, éventuellement en conjonction de produits de nettoyage. 
 Cette brosse n'est pas prévue pour nettoyer l'extérieur des toilettes, ni très loin dans le siphon, ni le siège.
